--- a/data/sysml2/result/Integrated_Scenario_5_Prop.xlsx
+++ b/data/sysml2/result/Integrated_Scenario_5_Prop.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>VehicleType</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -473,17 +473,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>drivingDirection</t>
+          <t>CombustionCondition</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -495,17 +495,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vehicleType</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RoadName</t>
+          <t>DrivingDirection</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -539,12 +539,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RoadType</t>
+          <t>VehiclePosition</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NumofLane</t>
+          <t>VehicleSpeed</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -583,17 +583,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NumofPassableLane</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -605,17 +605,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>StartStake</t>
+          <t>WeatherType</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -627,17 +627,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EndStake</t>
+          <t>Rainfall</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -649,17 +649,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>Visibility</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AffectedRoad</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -671,17 +671,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ClosedCondition</t>
+          <t>WindSpeed</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -693,17 +693,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PollutedCondition</t>
+          <t>WindForce</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AffectedRoad</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -715,17 +715,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>SnowfallIntensity</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AffectedPeople</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -737,17 +737,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MeteorologyType</t>
+          <t>CollisionCondition</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Meteorology</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -759,12 +759,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rainfall</t>
+          <t>BreakdownCondition</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Meteorology</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visibility</t>
+          <t>RollOverCondition</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Meteorology</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -803,17 +803,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WindSpeed</t>
+          <t>AbnormalSpeedCondition</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Meteorology</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>&lt;class 'float'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -825,12 +825,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WindScale</t>
+          <t>IIIegalLaneOccupationCondition</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Meteorology</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -847,17 +847,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CollideCondition</t>
+          <t>ResourceType</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>ResourceUsageCondition</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>ResourceQuantityOrQuality</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>implementationCondition</t>
+          <t>BehaviorType</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>aid</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -935,17 +935,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>startTime</t>
+          <t>ImplementationCondition</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>aid</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -957,63 +957,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>endTime</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>aid</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DataProperty</t>
+          <t>ObjectProperty</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>utilizedCondition</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>ambulance</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>&lt;class 'bool'&gt;</t>
-        </is>
-      </c>
+          <t>associateWith</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DataProperty</t>
+          <t>ObjectProperty</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>usageAmount</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>ambulance</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>&lt;class 'float'&gt;</t>
-        </is>
-      </c>
+          <t>consistComposition</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1023,7 +1007,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>associateWith</t>
+          <t>exhibitState</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1037,7 +1021,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>consistComposition</t>
+          <t>hasEffectOn</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1051,7 +1035,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>exhibitState</t>
+          <t>stateTransform</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1065,11 +1049,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>hasEffectOn</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+          <t>CollideTransform</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DriveState</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CollideState</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1079,11 +1071,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>stateTransform</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+          <t>ExplodeTransform</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CollidedState</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ExplodeState</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1093,17 +1093,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>associateRoad</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>HazardVehicle</t>
-        </is>
-      </c>
+          <t>hasCollideEffectOn</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>324</t>
         </is>
       </c>
     </row>
@@ -1115,19 +1111,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CollideTransform</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>DriveState</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>CollideState</t>
-        </is>
-      </c>
+          <t>hasExplodeEffectOn</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1137,17 +1125,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ExplodeTransform</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>CollidedState</t>
-        </is>
-      </c>
+          <t>hasSpillEffectOn</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ExplodeState</t>
+          <t>435</t>
         </is>
       </c>
     </row>
@@ -1159,19 +1143,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>consistpassenger</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>HazardVehicle</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>People</t>
-        </is>
-      </c>
+          <t>hasVehicleDepartureEffectOn</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1181,19 +1157,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>exhibitAffectedStates</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>AffectedVehicle</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>AffectedStates</t>
-        </is>
-      </c>
+          <t>hasVehicleExplosionEffectOn</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1203,19 +1171,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>consistlane</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>AffectedRoad</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Lane</t>
-        </is>
-      </c>
+          <t>hasVehicleMotionEffectOn</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1225,19 +1185,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>consistfacility</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>AffectedRoad</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Facility</t>
-        </is>
-      </c>
+          <t>hasVehicleSpeedChangeEffectOn</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1247,19 +1199,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>hasCollideEffectOn</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>HazardVehicle</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>AffectedPeople</t>
-        </is>
-      </c>
+          <t>hasVehicleSpillageEffectOn</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1269,15 +1213,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>hasSpillEffectOn</t>
+          <t>hasVehicleTransportEffectOn</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>HazardVehicle</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1287,17 +1227,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>hasExplodeEffectOn</t>
+          <t>consistVehicleCargo</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AffectedVehicle</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>VehicleCargo</t>
         </is>
       </c>
     </row>
@@ -1309,17 +1249,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SpillTransform</t>
+          <t>consistVehiclePassengers</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CollideState</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SpillState</t>
+          <t>VehiclePassengers</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1271,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>consistcargo</t>
+          <t>consistVehicleComponents</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1341,7 +1281,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cargo</t>
+          <t>VehicleComponents</t>
         </is>
       </c>
     </row>
@@ -1353,17 +1293,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>exhibitHazardStates</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>HazardVehicle</t>
-        </is>
-      </c>
+          <t>associate-28</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HazardStates</t>
+          <t>-28</t>
         </is>
       </c>
     </row>
@@ -1375,11 +1311,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>associateAction</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+          <t>SpillTransform</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CollideState</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SpillState</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1389,7 +1333,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>associateResource</t>
+          <t>hasVehicleBreakdownEffectOn</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1403,19 +1347,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>associateambulance</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>aid</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>ambulance</t>
-        </is>
-      </c>
+          <t>hasVehicleCollisionEffectOn</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1425,19 +1361,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>associatefireFightingTruck</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>firefighting</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>fireFightingTruck</t>
-        </is>
-      </c>
+          <t>hasVehicleLaneChangeEffectOn</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1447,19 +1375,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>associatetractor</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>tow</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>tractor</t>
-        </is>
-      </c>
+          <t>hasVehicleOverturnEffectOn</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1469,19 +1389,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>associateemergencyVehicle</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>rescue</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>emergencyVehicle</t>
-        </is>
-      </c>
+          <t>hasVehicleTurningEffectOn</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1535,7 +1447,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tow:ActionTransform</t>
+          <t>Rescue:ActionTransform</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1557,7 +1469,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Rescue:ActionTransform</t>
+          <t>Tow:ActionTransform</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1579,19 +1491,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>exhibitaidStates</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>aid</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>aidStates</t>
-        </is>
-      </c>
+          <t>hasActionEffectOn</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1601,19 +1505,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>exhibitfirefightingStates</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>firefighting</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>firefightingStates</t>
-        </is>
-      </c>
+          <t>hasFirefightingEffectOn</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1623,19 +1519,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>exhibittowStates</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>tow</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>towStates</t>
-        </is>
-      </c>
+          <t>hasPersonnalRescueEffectOn</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1645,19 +1533,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>exhibitrescueStates</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>rescue</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>rescueStates</t>
-        </is>
-      </c>
+          <t>hasRoadCleaningEffectOn</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1667,19 +1547,39 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>hasActionEffectOn</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>emergencyVehicle</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>aid</t>
-        </is>
-      </c>
+          <t>hasRoadControlEffectOn</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>hasRoadRepairEffectOn</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>hasVehicleTowingEffectOn</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
